--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_12_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_12_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49027.46293129013</v>
+        <v>9703160.865655741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49027.46293129013</v>
+        <v>9703160.865655741</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45724.87177125025</v>
+        <v>4804257.408736867</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45724.87177125025</v>
+        <v>4804257.408736867</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609947586.918835</v>
+        <v>62238459.385819</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13107.29708372016</v>
+        <v>1431315.132786311</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25509.74456508976</v>
+        <v>2752936.354515254</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37912.19204645934</v>
+        <v>4074557.5762442</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52936.94875331331</v>
+        <v>5230770.639138054</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67226.70208208915</v>
+        <v>6414935.417623905</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81516.45541086499</v>
+        <v>7599100.196109749</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>95930.22071927719</v>
+        <v>8885479.603981292</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>110228.0490579924</v>
+        <v>10148787.55488314</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>125109.4749752238</v>
+        <v>11251022.3618177</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>138326.9829722893</v>
+        <v>12551801.51245702</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>151544.4909693548</v>
+        <v>13852580.66309634</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>163852.2310261</v>
+        <v>15146647.84284334</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>176299.1904767846</v>
+        <v>16468419.68198429</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>191416.7040291543</v>
+        <v>17428575.13082472</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>209260.0707771312</v>
+        <v>17898244.96322515</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>221</v>
@@ -27052,13 +27052,13 @@
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>186</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>293</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>244</v>
